--- a/Edam.App.Data/Projects/Datovy.HC.CD/Archive/datovy.hc.cd.doc.xlsx
+++ b/Edam.App.Data/Projects/Datovy.HC.CD/Archive/datovy.hc.cd.doc.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prjs\AppData\InXone.AM.Console\Projects\Datovy.HC.CD\Archive\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\prjs\Datovy.Edam\Edam.App.Data\Projects\Datovy.HC.CD\Archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D55D5419-686F-4DE4-BCFF-344DE4E267D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8582EFDB-2809-4150-97C4-F9B53810D078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="1605" windowWidth="45000" windowHeight="24960"/>
+    <workbookView xWindow="10500" yWindow="2265" windowWidth="36720" windowHeight="23820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Disease_Surveillance.Documentat" sheetId="1" r:id="rId1"/>
+    <sheet name="Documentation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1701" uniqueCount="550">
   <si>
     <t>Action</t>
   </si>
@@ -28,15 +28,6 @@
     <t>Activity</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
-    <t>MS_Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example : CDCNotifiedDate  CDC Notification is an activity and CDC Notified Date is the activity Date Example: DateFirstReportedToPublicHealth -- Date First Reported to Public Health (Activity or Event) Date is the activity date. Activity -- Individual Events </t>
-  </si>
-  <si>
     <t>Geography</t>
   </si>
   <si>
@@ -52,12 +43,6 @@
     <t>Assessment</t>
   </si>
   <si>
-    <t>Assessment_ID</t>
-  </si>
-  <si>
-    <t>AST&lt;timestamp&gt;000001</t>
-  </si>
-  <si>
     <t>Assessment_Question</t>
   </si>
   <si>
@@ -70,15 +55,9 @@
     <t>Assessment_Questionnaire</t>
   </si>
   <si>
-    <t>Questionnaire Template</t>
-  </si>
-  <si>
     <t>Clinical</t>
   </si>
   <si>
-    <t>Blood_Transfusion</t>
-  </si>
-  <si>
     <t>Donor_Flag_ID</t>
   </si>
   <si>
@@ -265,9 +244,6 @@
     <t>Phone_Number</t>
   </si>
   <si>
-    <t>PRIVACY</t>
-  </si>
-  <si>
     <t>NIST-PII</t>
   </si>
   <si>
@@ -343,15 +319,9 @@
     <t>Condition</t>
   </si>
   <si>
-    <t xml:space="preserve">Symptoms, conditions, susceptibility, and other qualifiers </t>
-  </si>
-  <si>
     <t>Type_ID</t>
   </si>
   <si>
-    <t>Pan-Sensitive - 1st line of drugs will kill the bacteria Resistant = second line of drugs - additional durgs (Resistant  = lacking the ability to resist something (as a pathogen, familial disease, or a drug) : sensitivity) Category Susceptibility Susceptible : likely or liable to be influenced or harmed by a particular thing: "patients with liver disease may be susceptible to infection"</t>
-  </si>
-  <si>
     <t>Qualifier_Text</t>
   </si>
   <si>
@@ -373,9 +343,6 @@
     <t>Status_Code_ID</t>
   </si>
   <si>
-    <t>Level Code System Display Definition Canonical Mapping for "Condition Clinical Status Codes" HL7 clinical conditions.</t>
-  </si>
-  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -544,18 +511,9 @@
     <t>Code_ID</t>
   </si>
   <si>
-    <t>Laboratory Treatment</t>
-  </si>
-  <si>
-    <t>Positive Negative Unknown</t>
-  </si>
-  <si>
     <t>Generic</t>
   </si>
   <si>
-    <t>Provided to name the kind of list, checklist, group, or collection.</t>
-  </si>
-  <si>
     <t>Exposure_Report</t>
   </si>
   <si>
@@ -634,27 +592,12 @@
     <t>Item</t>
   </si>
   <si>
-    <t>Item Type = 'Service'</t>
-  </si>
-  <si>
     <t>Epidemiology</t>
   </si>
   <si>
     <t>Lab_Link</t>
   </si>
   <si>
-    <t>Lab_Reference_ID</t>
-  </si>
-  <si>
-    <t>reference laboratory that will be used along with the patient identifier and specimen identifier to uniquely identify a lab message</t>
-  </si>
-  <si>
-    <t>Patient_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> lab message patient Identifier that will be used along with the reference laboratory and specimen identifier to uniquely identify a VPD lab message</t>
-  </si>
-  <si>
     <t>Specimen_ID</t>
   </si>
   <si>
@@ -745,9 +688,6 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Facility - outpatient clinic short-term care and can recover at Hospitals refer discharged patients to a network of outpatient clinics that specialize in services for ongoing conditions. Hospital - inpatient clinic long-term care or emergencies or specific medical treatment or specialist.</t>
-  </si>
-  <si>
     <t>Maternal_Report</t>
   </si>
   <si>
@@ -799,33 +739,18 @@
     <t>Dose_Form_Code_ID</t>
   </si>
   <si>
-    <t>powder | tablets | capsule | liquid tab = tablet cap = capsule</t>
-  </si>
-  <si>
     <t>Dosage_Ordered</t>
   </si>
   <si>
-    <t>The doctor orders 90 milligrams of liquid cough syrup. The liquid cough syrup has a label that reads 120 milligrams in 5 milliliters. How much cough syrup should the nurse give to the patient? Given: D (Dosage Ordered) = 90 mg H  (Dosage Strength) = 120 mg Q (Unit of Measure) = 5 mL x (Dosage Calculated) = 90 mg 120 mg x 5 mL x =3/4 x 5 mL x = 15/4 mL x = 3.75 mL Therefore, the nurse should give 3.75 mL of the cough syrup to the patient.</t>
-  </si>
-  <si>
     <t>Dosage_Strength</t>
   </si>
   <si>
-    <t>2.5 milligram (Details: UCUM code mg = 'mg') Dosage Unit mg</t>
-  </si>
-  <si>
     <t>Measure_Unit</t>
   </si>
   <si>
-    <t>Unit of Measure per 2 mL per capsule per tablet</t>
-  </si>
-  <si>
     <t>Frequency_Code_ID</t>
   </si>
   <si>
-    <t>q every day, bid twice a day, tid three times a day, qid four times a day</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
@@ -850,9 +775,6 @@
     <t>Birth_Location_ID</t>
   </si>
   <si>
-    <t>X_Reference</t>
-  </si>
-  <si>
     <t>Birth Location ID is a reference to a location detailed elsewhere</t>
   </si>
   <si>
@@ -943,121 +865,817 @@
     <t>Profile_Condition</t>
   </si>
   <si>
-    <t>Define the list of Medical Conditions that are related to a particular disease being trackt</t>
-  </si>
-  <si>
     <t>Provider</t>
   </si>
   <si>
-    <t>Provider_Type_ID</t>
-  </si>
-  <si>
-    <t>Referring Provider Attending Provider Primary Care Provider (PCP)</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
-    <t>Session</t>
-  </si>
-  <si>
-    <t>If not case id then add person information</t>
-  </si>
-  <si>
-    <t>Session_Type_ID</t>
-  </si>
-  <si>
-    <t>Follow-up</t>
-  </si>
-  <si>
-    <t>Status_Code</t>
-  </si>
-  <si>
-    <t>Status Code by Category allowing to be used to support any reference table</t>
-  </si>
-  <si>
-    <t>Travel_Detail</t>
-  </si>
-  <si>
-    <t>By Air, By Train, By Ship</t>
-  </si>
-  <si>
-    <t>Entity_Type_ID</t>
-  </si>
-  <si>
-    <t>Person, Contact</t>
-  </si>
-  <si>
-    <t>Entity_ID</t>
-  </si>
-  <si>
-    <t>PersonID, ContactID</t>
-  </si>
-  <si>
-    <t>Treatment</t>
-  </si>
-  <si>
-    <t>Given_Indicator</t>
-  </si>
-  <si>
-    <t>If treatment was administered</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Name of treatment</t>
-  </si>
-  <si>
-    <t>Start_Date</t>
-  </si>
-  <si>
-    <t>Date treatment began/was given</t>
-  </si>
-  <si>
-    <t>End_Date</t>
-  </si>
-  <si>
-    <t>Date treatment ended</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Amount of the treatment given</t>
-  </si>
-  <si>
-    <t>Form</t>
-  </si>
-  <si>
-    <t>Method treatment was administered</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Comments about treatment this will be changed to a note</t>
-  </si>
-  <si>
-    <t>Status of treatment</t>
-  </si>
-  <si>
-    <t>Uri_Type</t>
-  </si>
-  <si>
-    <t>Vitals</t>
-  </si>
-  <si>
-    <t>Subject_Type_ID</t>
-  </si>
-  <si>
-    <t>Person Contact</t>
+    <t>Schema</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>Access_Token</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Registry of the access token for given officer or system user</t>
+  </si>
+  <si>
+    <t>A single or set of related actions, events, or process steps</t>
+  </si>
+  <si>
+    <t>Activity_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of activity</t>
+  </si>
+  <si>
+    <t>Address_Line</t>
+  </si>
+  <si>
+    <t>A line based unstructured address</t>
+  </si>
+  <si>
+    <t>Address_Structured</t>
+  </si>
+  <si>
+    <t>A (street based) structured address details</t>
+  </si>
+  <si>
+    <t>Affiliation</t>
+  </si>
+  <si>
+    <t>An association of an entity with another organization or person with a common goal or purpose</t>
+  </si>
+  <si>
+    <t>Answer_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of answer</t>
+  </si>
+  <si>
+    <t>App_Message_Code</t>
+  </si>
+  <si>
+    <t>Registry or log of application runtime related messages</t>
+  </si>
+  <si>
+    <t>An evaluation, appraisal, or assessment of something or someone</t>
+  </si>
+  <si>
+    <t>Assessment_Answer</t>
+  </si>
+  <si>
+    <t>An answer to an assessment question or concern</t>
+  </si>
+  <si>
+    <t>A question or statement about an area of concern to be discussed, assessed or detailed</t>
+  </si>
+  <si>
+    <t>Questionnaire Template for an assessment</t>
+  </si>
+  <si>
+    <t>Assessment_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of assessment</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>A transfer of a responsability to an agent, officer or other</t>
+  </si>
+  <si>
+    <t>Assignment_Link</t>
+  </si>
+  <si>
+    <t>An association related to a transfer of a responsability to an agent, officer or other</t>
+  </si>
+  <si>
+    <t>Birth_Status_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a new born birth state</t>
+  </si>
+  <si>
+    <t>Blood_Product_Code</t>
+  </si>
+  <si>
+    <t>If a transfused blood product was implicated in an investigation, specify which type(s) of product</t>
+  </si>
+  <si>
+    <t>Blood_Transfusion_Report</t>
+  </si>
+  <si>
+    <t>Report detaisl about a blood transfussions and donations</t>
+  </si>
+  <si>
+    <t>Body_Position_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a code for the body position while in a procedure (i.e. lying down)</t>
+  </si>
+  <si>
+    <t>Body_Site_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a code for the body position where an injury, mark or related occurance is located</t>
+  </si>
+  <si>
+    <t>An aggregation of information about a set of related activities and events</t>
+  </si>
+  <si>
+    <t>Case_Class_Status_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of Case classification state</t>
+  </si>
+  <si>
+    <t>Case_Classification_Exposure_Source_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe an Answer list for how the case should be classified by source</t>
+  </si>
+  <si>
+    <t>Case_Investigation_Stattus_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe the state of an investigation (open or close)</t>
+  </si>
+  <si>
+    <t>Investigation or case details collected as of a particular date to be reported to an Authority</t>
+  </si>
+  <si>
+    <t>Case_Transmission_Mode_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of transmission mode of a disease</t>
+  </si>
+  <si>
+    <t>Case_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of Case</t>
+  </si>
+  <si>
+    <t>Gather information of the means of reaching out to another entity including phone number or other</t>
+  </si>
+  <si>
+    <t>Privacy</t>
+  </si>
+  <si>
+    <t>Complication</t>
+  </si>
+  <si>
+    <t>Identify found complications while investigating or reporting a case</t>
+  </si>
+  <si>
+    <t>Complication_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe possible complications to be found</t>
+  </si>
+  <si>
+    <t>Details about a found complication to be reported to an Authority</t>
+  </si>
+  <si>
+    <t>Symptoms, conditions, susceptibility, and other qualifiers</t>
+  </si>
+  <si>
+    <t>Identify the code for a given condition</t>
+  </si>
+  <si>
+    <t>Identify the code related to the state of the condition</t>
+  </si>
+  <si>
+    <t>A data concept for a person or organization to contact</t>
+  </si>
+  <si>
+    <t>Contact_Emergency</t>
+  </si>
+  <si>
+    <t>A data concept for a person or organization to contact in an emergency situation</t>
+  </si>
+  <si>
+    <t>Details about an encounter of a person with another or a situation</t>
+  </si>
+  <si>
+    <t>Contact_Type</t>
+  </si>
+  <si>
+    <t>Identifies and describe a kind of contact for a person or organization</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of encounter or contact</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Content_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of content</t>
+  </si>
+  <si>
+    <t>Country_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a Country code based on ISO-3166</t>
+  </si>
+  <si>
+    <t>Detection_Method_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a Process by which the case first identified</t>
+  </si>
+  <si>
+    <t>Device_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe the a device or artifact that is used in a procedure or event</t>
+  </si>
+  <si>
+    <t>Identify and describe a medical device or an electronic artifact</t>
+  </si>
+  <si>
+    <t>Disease_Condition_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe the a disease condition</t>
+  </si>
+  <si>
+    <t>A result or outcome that is the product of handoing, processing, or finalizing something</t>
+  </si>
+  <si>
+    <t>Disposition Code</t>
+  </si>
+  <si>
+    <t>Status Code of the disposition that describe the state of the disposition</t>
+  </si>
+  <si>
+    <t>An instance of a disposition of a Case or other</t>
+  </si>
+  <si>
+    <t>Disposition_Code</t>
+  </si>
+  <si>
+    <t>The code that identify the kind of disposition</t>
+  </si>
+  <si>
+    <t>Dosage_Form_Code</t>
+  </si>
+  <si>
+    <t>Unit doses such as 25 mg capsule shell, or other</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>A description of an element and its value that will be a child of an Entity</t>
+  </si>
+  <si>
+    <t>Element_Value</t>
+  </si>
+  <si>
+    <t>A instance of an Element and provided value</t>
+  </si>
+  <si>
+    <t>Element_Value_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of element value</t>
+  </si>
+  <si>
+    <t>Employment</t>
+  </si>
+  <si>
+    <t>A person job/employment details</t>
+  </si>
+  <si>
+    <t>Employment_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe an employment or job kind or type</t>
+  </si>
+  <si>
+    <t>A group definition to manage an artifact, list, check-list, item-values group or other</t>
+  </si>
+  <si>
+    <t>An association between an entity (person or organization) and a location</t>
+  </si>
+  <si>
+    <t>Entity_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of entity such as a person, organization, agency or other</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of entity or grouping purpose</t>
+  </si>
+  <si>
+    <t>Ethnicity_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe the cultural lineage of a person</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>A instance of an action withing an activity, incident, or a process</t>
+  </si>
+  <si>
+    <t>Event_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe an event</t>
+  </si>
+  <si>
+    <t>Exposure_Location_Report</t>
+  </si>
+  <si>
+    <t>Details about the location of an exposure to be reported to an Authority</t>
+  </si>
+  <si>
+    <t>Details about an exposure to a disease to be reported to an Authority</t>
+  </si>
+  <si>
+    <t>Exposure_Setting_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of exposure setting</t>
+  </si>
+  <si>
+    <t>Finding</t>
+  </si>
+  <si>
+    <t>Identify individual findings of an investigation or report</t>
+  </si>
+  <si>
+    <t>Finding_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe possible finding as identified by a code value</t>
+  </si>
+  <si>
+    <t>Flag</t>
+  </si>
+  <si>
+    <t>An instance of a code or variable used to indicate a property or state of something important</t>
+  </si>
+  <si>
+    <t>Flag_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a variable code used to indicate a property or state of a value</t>
+  </si>
+  <si>
+    <t>Gender_Identity_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe an individual personal sense of having a particular gender</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>A representation of an identity and related details</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of an identification (such as social security, passport, other)</t>
+  </si>
+  <si>
+    <t>Details of an immunization process or event tipically associated with a vaccine</t>
+  </si>
+  <si>
+    <t>Indicator_Flag_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe an indicator, Yes (true), No (false), or unknown</t>
+  </si>
+  <si>
+    <t>Industry_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a code or classification for an economic activity, commerce or domain</t>
+  </si>
+  <si>
+    <t>Infant_Report</t>
+  </si>
+  <si>
+    <t>Reported details about an infant identified using the Subject ID</t>
+  </si>
+  <si>
+    <t>Describe, provide details about an article or thing</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of Item</t>
+  </si>
+  <si>
+    <t>Item_Link</t>
+  </si>
+  <si>
+    <t>An associaton of an entity with an Item such as a vehicle or artifact</t>
+  </si>
+  <si>
+    <t>Item_Type</t>
+  </si>
+  <si>
+    <t>Jurisdiction_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a geographical area in which an organization, person, or object has a specific range of authority</t>
+  </si>
+  <si>
+    <t>Association of a Lab with an external reference such as a Patient, Specimen, or other</t>
+  </si>
+  <si>
+    <t>Lab report details captured at a given date-time to be reported to an Authority</t>
+  </si>
+  <si>
+    <t>Lab_Result</t>
+  </si>
+  <si>
+    <t>Provide details about a Lab test results</t>
+  </si>
+  <si>
+    <t>Lab_Result_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of lab result</t>
+  </si>
+  <si>
+    <t>Lab_Test_Interpretation_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe Epidemiologic interpretation of the results of the tests performed for Vaccine Preventable Disease (VPD)</t>
+  </si>
+  <si>
+    <t>Details about a laboratory test based on CDC NNDSS messages MMGs</t>
+  </si>
+  <si>
+    <t>Lab_Test_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe Lab test type/kind associated with a disease</t>
+  </si>
+  <si>
+    <t>Lab_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a Lab type/kind</t>
+  </si>
+  <si>
+    <t>Provide details about a laboratory unit and reference to its unit/organization</t>
+  </si>
+  <si>
+    <t>Details about a geographical area or specific point in a geography</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of location</t>
+  </si>
+  <si>
+    <t>Location_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of Location</t>
+  </si>
+  <si>
+    <t>Manifestation_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe valid codes for signs of something happening</t>
+  </si>
+  <si>
+    <t>Manifestation_Report</t>
+  </si>
+  <si>
+    <t>Details of observed signs and their existance</t>
+  </si>
+  <si>
+    <t>Marital_Status_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a person state of being single, married, separated, divorced, or widowed</t>
+  </si>
+  <si>
+    <t>Details about a conception, pregnancy and its state</t>
+  </si>
+  <si>
+    <t>Media</t>
+  </si>
+  <si>
+    <t>A document, image, or other digital artifacts that describe or define something</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of media</t>
+  </si>
+  <si>
+    <t>Details about a substance for medical treatment, medicine or drug</t>
+  </si>
+  <si>
+    <t>The form of a dosage such as 25mg of powder, tablets, capsule, or other</t>
+  </si>
+  <si>
+    <t>Specification and details of an order dosage as stated by a practictioner</t>
+  </si>
+  <si>
+    <t>Amount of a dosage such as 2.5 milligram Dosage</t>
+  </si>
+  <si>
+    <t>Unit of Measure such as 2 mL per capsule per tablet</t>
+  </si>
+  <si>
+    <t>Frequency of ingestion of a medication</t>
+  </si>
+  <si>
+    <t>An entity, subject or person Name details</t>
+  </si>
+  <si>
+    <t>Name_Type_ID</t>
+  </si>
+  <si>
+    <t>ExternalReference</t>
+  </si>
+  <si>
+    <t>A name type</t>
+  </si>
+  <si>
+    <t>A given name</t>
+  </si>
+  <si>
+    <t>A middle name</t>
+  </si>
+  <si>
+    <t>A family name</t>
+  </si>
+  <si>
+    <t>Name_Prefix_Code_ID</t>
+  </si>
+  <si>
+    <t>A name prefix</t>
+  </si>
+  <si>
+    <t>Name_Suffix_Code_ID</t>
+  </si>
+  <si>
+    <t>A name suffix</t>
+  </si>
+  <si>
+    <t>A person or entity full name</t>
+  </si>
+  <si>
+    <t>Name_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of name</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>A statement, comment, or remark defining a thing or providing additional information</t>
+  </si>
+  <si>
+    <t>Note_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of note or comment</t>
+  </si>
+  <si>
+    <t>Occupation_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of job or profession</t>
+  </si>
+  <si>
+    <t>Officer</t>
+  </si>
+  <si>
+    <t>A member or agent of a certain grade in some honorary orders</t>
+  </si>
+  <si>
+    <t>Officer_Type</t>
+  </si>
+  <si>
+    <t>Identity and describe a kind of officer or agent that represents an organization in some capacity</t>
+  </si>
+  <si>
+    <t>A unit which conducts some sort of business or operations</t>
+  </si>
+  <si>
+    <t>Organization_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of organization</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Identify an Organization, Person, or Thing associated with an Action, Activity, or Event</t>
+  </si>
+  <si>
+    <t>Party_Type</t>
+  </si>
+  <si>
+    <t>A description and definition of a person, its main identification, demographics and other details</t>
+  </si>
+  <si>
+    <t>A person code stating some important or noticeable thing about him or her</t>
+  </si>
+  <si>
+    <t>Person_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe the kind of person</t>
+  </si>
+  <si>
+    <t>Pregnancy_Trimester_Code</t>
+  </si>
+  <si>
+    <t>Identification and description of a code used to state the trimester of a pregnancy</t>
+  </si>
+  <si>
+    <t>Priority_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe the precedence or importance of something</t>
+  </si>
+  <si>
+    <t>Probable_Reason_Code</t>
+  </si>
+  <si>
+    <t>Identify and describe a Rationale for classifying a case as probable</t>
+  </si>
+  <si>
+    <t>Profile</t>
+  </si>
+  <si>
+    <t>Identify a group of conditions and circumstances that are common to an investigation of a disease, outbreak, or medical situation</t>
+  </si>
+  <si>
+    <t>Define the list of Medical Condition that are related to a particular disease being trackt</t>
+  </si>
+  <si>
+    <t>Profile_Type</t>
+  </si>
+  <si>
+    <t>Identify and describe a kind of profile or common set of conditions</t>
+  </si>
+  <si>
+    <t>Provider_Reference</t>
+  </si>
+  <si>
+    <t>A reference to a provider or entity</t>
+  </si>
+  <si>
+    <t>PropertyValue</t>
+  </si>
+  <si>
+    <t>User_ID</t>
+  </si>
+  <si>
+    <t>External reference to a (Entity) Officer</t>
+  </si>
+  <si>
+    <t>An external reference to a (Management) Case</t>
+  </si>
+  <si>
+    <t>Location_ID</t>
+  </si>
+  <si>
+    <t>An external reference to a (Geography) Location</t>
+  </si>
+  <si>
+    <t>Contact_ID</t>
+  </si>
+  <si>
+    <t>An external reference to a (Entity) Contact</t>
+  </si>
+  <si>
+    <t>External reference to (Management) Case</t>
+  </si>
+  <si>
+    <t>External reference to (Entity) Person</t>
+  </si>
+  <si>
+    <t>Concept_ID</t>
+  </si>
+  <si>
+    <t>External reference to (Generic) Element</t>
+  </si>
+  <si>
+    <t>External reference to (Entity) Contact</t>
+  </si>
+  <si>
+    <t>Officer_ID</t>
+  </si>
+  <si>
+    <t>External reference to (Entity) Officer ID</t>
+  </si>
+  <si>
+    <t>External reference for (Management) Case</t>
+  </si>
+  <si>
+    <t>External reference for (Entity) Person</t>
+  </si>
+  <si>
+    <t>External reference to (Entity) Officer</t>
+  </si>
+  <si>
+    <t>Provider_ID</t>
+  </si>
+  <si>
+    <t>External reference to (Provider) Provider</t>
+  </si>
+  <si>
+    <t>External reference to (Entity) Organization</t>
+  </si>
+  <si>
+    <t>Profile_ID</t>
+  </si>
+  <si>
+    <t>External reference to (Surveillance) Profile</t>
+  </si>
+  <si>
+    <t>An external reference to an (Entity) Organization</t>
+  </si>
+  <si>
+    <t>Person_ID</t>
+  </si>
+  <si>
+    <t>An external reference to an (Entity) Person</t>
+  </si>
+  <si>
+    <t>External reference to (Geography) Location</t>
+  </si>
+  <si>
+    <t>Activity_ID</t>
+  </si>
+  <si>
+    <t>External reference for (Action) Activity</t>
+  </si>
+  <si>
+    <t>External reference for (Entity) Organization</t>
+  </si>
+  <si>
+    <t>Item_ID</t>
+  </si>
+  <si>
+    <t>Laboratory_ID</t>
+  </si>
+  <si>
+    <t>Reference laboratory that will be used along with the patient identifier and specimen identifier to uniquely identify a lab message</t>
+  </si>
+  <si>
+    <t>Lab message patient Identifier that will be used along with the reference laboratory and specimen identifier to uniquely identify a VPD lab message</t>
+  </si>
+  <si>
+    <t>Location_Link</t>
+  </si>
+  <si>
+    <t>External reference for (Geography) Location</t>
+  </si>
+  <si>
+    <t>An external reference to an (Entity) Contact</t>
+  </si>
+  <si>
+    <t>An external reference to a (Entity) Person</t>
+  </si>
+  <si>
+    <t>Provider_Code</t>
+  </si>
+  <si>
+    <t>The Healthcare Provider Taxonomy code set divides health care providers into hierarchical groupings by type, classification, and specialization, and assigns a code to each grouping</t>
+  </si>
+  <si>
+    <t>Provider_Code_ID</t>
+  </si>
+  <si>
+    <t>Provider Code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1891,1139 +2509,1062 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E180"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>286</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>287</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>508</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
+        <v>288</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>288</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>509</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>512</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>514</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
+        <v>294</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>295</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
+        <v>298</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>282</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+        <v>302</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>122</v>
       </c>
       <c r="D17" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E18" t="s">
-        <v>47</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="B20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
-      </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E20" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
+        <v>309</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>310</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C23" t="s">
-        <v>56</v>
+        <v>311</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="C24" t="s">
-        <v>58</v>
+        <v>518</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E24" t="s">
-        <v>59</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E25" t="s">
-        <v>61</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>311</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E26" t="s">
-        <v>63</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E27" t="s">
-        <v>65</v>
+        <v>314</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>313</v>
       </c>
       <c r="C28" t="s">
-        <v>66</v>
+        <v>521</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E28" t="s">
-        <v>67</v>
+        <v>522</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
+        <v>315</v>
       </c>
       <c r="D29" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>316</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
+        <v>317</v>
       </c>
       <c r="D30" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E30" t="s">
-        <v>71</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2</v>
+        <v>319</v>
       </c>
       <c r="D31" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="C32" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="C33" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E33" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>319</v>
       </c>
       <c r="C34" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E34" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E35" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="D36" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E36" t="s">
-        <v>87</v>
+        <v>523</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>319</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>122</v>
       </c>
       <c r="D37" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E37" t="s">
-        <v>89</v>
+        <v>524</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" t="s">
-        <v>90</v>
+        <v>321</v>
       </c>
       <c r="D38" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E38" t="s">
-        <v>91</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" t="s">
-        <v>92</v>
+        <v>323</v>
       </c>
       <c r="D39" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="D40" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C41" t="s">
-        <v>96</v>
+        <v>521</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E41" t="s">
-        <v>97</v>
+        <v>525</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>517</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C43" t="s">
-        <v>100</v>
+        <v>526</v>
       </c>
       <c r="D43" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C44" t="s">
-        <v>102</v>
+        <v>186</v>
       </c>
       <c r="D44" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>529</v>
       </c>
       <c r="D45" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="C46" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="D46" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="D47" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>109</v>
+        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
-      </c>
-      <c r="C48" t="s">
-        <v>110</v>
+        <v>328</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>329</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
-      </c>
-      <c r="C49" t="s">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="D49" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>331</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E50" t="s">
-        <v>115</v>
+        <v>332</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E51" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>118</v>
+        <v>24</v>
       </c>
       <c r="C52" t="s">
-        <v>119</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E52" t="s">
-        <v>120</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D53" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E53" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C54" t="s">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E54" t="s">
-        <v>125</v>
+        <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
-        <v>126</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C56" t="s">
-        <v>127</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E56" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C57" t="s">
-        <v>129</v>
+        <v>37</v>
       </c>
       <c r="D57" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
-        <v>132</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C59" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="D59" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E59" t="s">
-        <v>134</v>
+        <v>516</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C60" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="D60" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E60" t="s">
-        <v>136</v>
+        <v>517</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>63</v>
       </c>
       <c r="D61" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E62" t="s">
-        <v>140</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C63" t="s">
-        <v>141</v>
+        <v>43</v>
       </c>
       <c r="D63" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>143</v>
+        <v>45</v>
       </c>
       <c r="D64" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E64" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>47</v>
       </c>
       <c r="D65" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E65" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="C66" t="s">
-        <v>146</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E66" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -3031,16 +3572,16 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C67" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E67" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -3048,16 +3589,16 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C68" t="s">
-        <v>150</v>
+        <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E68" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -3065,16 +3606,16 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C69" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="D69" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E69" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -3082,16 +3623,16 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C70" t="s">
-        <v>154</v>
+        <v>57</v>
       </c>
       <c r="D70" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -3099,16 +3640,16 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>156</v>
+        <v>59</v>
       </c>
       <c r="D71" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>157</v>
+        <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -3116,16 +3657,16 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>148</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>61</v>
       </c>
       <c r="D72" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E72" t="s">
-        <v>159</v>
+        <v>62</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -3133,186 +3674,168 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>148</v>
-      </c>
-      <c r="C73" t="s">
-        <v>160</v>
+        <v>333</v>
       </c>
       <c r="D73" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E73" t="s">
-        <v>157</v>
+        <v>334</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>148</v>
-      </c>
-      <c r="C74" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="D74" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E74" t="s">
-        <v>162</v>
+        <v>336</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>148</v>
-      </c>
-      <c r="C75" t="s">
-        <v>163</v>
+        <v>65</v>
       </c>
       <c r="D75" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>66</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>148</v>
-      </c>
-      <c r="C76" t="s">
-        <v>165</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E76" t="s">
-        <v>166</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B77" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D77" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>70</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>72</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B79" t="s">
-        <v>167</v>
+        <v>68</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>73</v>
       </c>
       <c r="D79" t="s">
-        <v>3</v>
+        <v>338</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>74</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B80" t="s">
-        <v>167</v>
-      </c>
-      <c r="C80" t="s">
-        <v>154</v>
+        <v>339</v>
       </c>
       <c r="D80" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="C81" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="D81" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>523</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="D82" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>524</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" t="s">
-        <v>160</v>
+        <v>341</v>
       </c>
       <c r="D83" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3320,16 +3843,13 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>167</v>
-      </c>
-      <c r="C84" t="s">
-        <v>161</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E84" t="s">
-        <v>162</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3337,16 +3857,16 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C85" t="s">
-        <v>163</v>
+        <v>76</v>
       </c>
       <c r="D85" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E85" t="s">
-        <v>164</v>
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3354,594 +3874,582 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>167</v>
+        <v>75</v>
       </c>
       <c r="C86" t="s">
-        <v>165</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>169</v>
+        <v>75</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="D87" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>81</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>82</v>
       </c>
       <c r="D88" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E88" t="s">
-        <v>174</v>
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="D89" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C90" t="s">
-        <v>2</v>
+        <v>124</v>
       </c>
       <c r="D90" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>516</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C91" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="D91" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E91" t="s">
-        <v>180</v>
+        <v>517</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C92" t="s">
-        <v>181</v>
+        <v>86</v>
       </c>
       <c r="D92" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E92" t="s">
-        <v>182</v>
+        <v>87</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C93" t="s">
-        <v>183</v>
+        <v>88</v>
       </c>
       <c r="D93" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E93" t="s">
-        <v>184</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C94" t="s">
-        <v>185</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C95" t="s">
-        <v>186</v>
+        <v>92</v>
       </c>
       <c r="D95" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>93</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C96" t="s">
-        <v>188</v>
+        <v>94</v>
       </c>
       <c r="D96" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>178</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D97" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E97" t="s">
-        <v>190</v>
+        <v>97</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B98" t="s">
-        <v>178</v>
-      </c>
-      <c r="C98" t="s">
-        <v>191</v>
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E98" t="s">
-        <v>192</v>
+        <v>344</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B99" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C99" t="s">
-        <v>193</v>
+        <v>99</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>345</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B100" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
       <c r="C100" t="s">
-        <v>195</v>
+        <v>124</v>
       </c>
       <c r="D100" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E100" t="s">
-        <v>196</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B101" t="s">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="C101" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="D101" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E101" t="s">
-        <v>171</v>
+        <v>524</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B102" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>198</v>
+        <v>98</v>
       </c>
       <c r="C103" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>103</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>202</v>
+        <v>11</v>
       </c>
       <c r="B104" t="s">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="C104" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D104" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E104" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>205</v>
+        <v>11</v>
       </c>
       <c r="B105" t="s">
-        <v>206</v>
+        <v>98</v>
       </c>
       <c r="C105" t="s">
-        <v>207</v>
+        <v>106</v>
       </c>
       <c r="D105" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E105" t="s">
-        <v>208</v>
+        <v>346</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="B106" t="s">
-        <v>206</v>
-      </c>
-      <c r="C106" t="s">
-        <v>209</v>
+        <v>107</v>
       </c>
       <c r="D106" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E106" t="s">
-        <v>210</v>
+        <v>347</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>205</v>
+        <v>67</v>
       </c>
       <c r="B107" t="s">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="C107" t="s">
-        <v>211</v>
+        <v>108</v>
       </c>
       <c r="D107" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E107" t="s">
-        <v>210</v>
+        <v>109</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B108" t="s">
-        <v>212</v>
-      </c>
-      <c r="C108" t="s">
-        <v>213</v>
+        <v>348</v>
       </c>
       <c r="D108" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>214</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>212</v>
-      </c>
-      <c r="C109" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
       <c r="D109" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E109" t="s">
-        <v>216</v>
+        <v>350</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="C110" t="s">
-        <v>217</v>
+        <v>111</v>
       </c>
       <c r="D110" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E110" t="s">
-        <v>218</v>
+        <v>112</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C111" t="s">
-        <v>220</v>
+        <v>113</v>
       </c>
       <c r="D111" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>114</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C112" t="s">
-        <v>222</v>
+        <v>96</v>
       </c>
       <c r="D112" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>115</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
-        <v>224</v>
+        <v>116</v>
       </c>
       <c r="D113" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>117</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
-        <v>226</v>
+        <v>118</v>
       </c>
       <c r="D114" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C115" t="s">
-        <v>228</v>
+        <v>135</v>
       </c>
       <c r="D115" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>136</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="D116" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>125</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C117" t="s">
-        <v>232</v>
+        <v>124</v>
       </c>
       <c r="D117" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>516</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>219</v>
+        <v>110</v>
       </c>
       <c r="C118" t="s">
-        <v>234</v>
+        <v>122</v>
       </c>
       <c r="D118" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="D119" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>517</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>110</v>
       </c>
       <c r="C120" t="s">
-        <v>238</v>
+        <v>120</v>
       </c>
       <c r="D120" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>121</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -3949,1019 +4457,3911 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="C121" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="D121" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>127</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="C122" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="D122" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>129</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="C123" t="s">
-        <v>244</v>
+        <v>130</v>
       </c>
       <c r="D123" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>131</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="C124" t="s">
-        <v>246</v>
+        <v>132</v>
       </c>
       <c r="D124" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>131</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>242</v>
+        <v>110</v>
       </c>
       <c r="C125" t="s">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="D125" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="B126" t="s">
-        <v>242</v>
-      </c>
-      <c r="C126" t="s">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="D126" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>242</v>
-      </c>
-      <c r="C127" t="s">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="D127" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>353</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>17</v>
+        <v>354</v>
       </c>
       <c r="B128" t="s">
-        <v>242</v>
-      </c>
-      <c r="C128" t="s">
-        <v>254</v>
+        <v>355</v>
       </c>
       <c r="D128" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>356</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B129" t="s">
-        <v>256</v>
-      </c>
-      <c r="C129" t="s">
-        <v>170</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E129" t="s">
-        <v>171</v>
+        <v>358</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
-      </c>
-      <c r="C130" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D130" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E130" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>205</v>
+        <v>2</v>
       </c>
       <c r="B131" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="C131" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D131" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E131" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>256</v>
+        <v>137</v>
       </c>
       <c r="C132" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="D132" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E132" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B133" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C133" t="s">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="D133" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C134" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="D134" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C135" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="D135" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B136" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C136" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="D136" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B137" t="s">
-        <v>257</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
-        <v>266</v>
+        <v>150</v>
       </c>
       <c r="D137" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B138" t="s">
-        <v>268</v>
+        <v>137</v>
       </c>
       <c r="C138" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
       <c r="D138" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>153</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B139" t="s">
-        <v>270</v>
+        <v>137</v>
       </c>
       <c r="C139" t="s">
-        <v>271</v>
+        <v>154</v>
       </c>
       <c r="D139" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E139" t="s">
-        <v>272</v>
+        <v>155</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B140" t="s">
-        <v>270</v>
-      </c>
-      <c r="C140" t="s">
-        <v>273</v>
+        <v>156</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E140" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B141" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C141" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
       <c r="D141" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E141" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B142" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C142" t="s">
-        <v>275</v>
+        <v>141</v>
       </c>
       <c r="D142" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>142</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B143" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>278</v>
+        <v>143</v>
       </c>
       <c r="D143" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B144" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
-        <v>280</v>
+        <v>145</v>
       </c>
       <c r="D144" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E144" t="s">
-        <v>272</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B145" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C145" t="s">
-        <v>281</v>
+        <v>147</v>
       </c>
       <c r="D145" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E145" t="s">
-        <v>82</v>
+        <v>148</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B146" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C146" t="s">
-        <v>282</v>
+        <v>149</v>
       </c>
       <c r="D146" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B147" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C147" t="s">
-        <v>284</v>
+        <v>150</v>
       </c>
       <c r="D147" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>151</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B148" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C148" t="s">
-        <v>284</v>
+        <v>152</v>
       </c>
       <c r="D148" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>74</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="C149" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="D149" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>155</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>270</v>
-      </c>
-      <c r="C150" t="s">
-        <v>287</v>
+        <v>359</v>
       </c>
       <c r="D150" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E150" t="s">
-        <v>82</v>
+        <v>360</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>270</v>
-      </c>
-      <c r="C151" t="s">
-        <v>288</v>
+        <v>359</v>
       </c>
       <c r="D151" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B152" t="s">
-        <v>270</v>
-      </c>
-      <c r="C152" t="s">
-        <v>290</v>
+        <v>361</v>
       </c>
       <c r="D152" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E152" t="s">
-        <v>272</v>
+        <v>362</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B153" t="s">
-        <v>270</v>
-      </c>
-      <c r="C153" t="s">
-        <v>291</v>
+        <v>158</v>
       </c>
       <c r="D153" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E153" t="s">
-        <v>292</v>
+        <v>363</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B154" t="s">
-        <v>270</v>
+        <v>158</v>
       </c>
       <c r="C154" t="s">
-        <v>293</v>
+        <v>159</v>
       </c>
       <c r="D154" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E154" t="s">
-        <v>272</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B155" t="s">
-        <v>270</v>
-      </c>
-      <c r="C155" t="s">
-        <v>294</v>
+        <v>364</v>
       </c>
       <c r="D155" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E155" t="s">
-        <v>295</v>
+        <v>365</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>270</v>
-      </c>
-      <c r="C156" t="s">
-        <v>294</v>
+        <v>161</v>
       </c>
       <c r="D156" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>366</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>270</v>
+        <v>161</v>
       </c>
       <c r="C157" t="s">
-        <v>282</v>
+        <v>162</v>
       </c>
       <c r="D157" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E157" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>297</v>
+        <v>161</v>
       </c>
       <c r="C158" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="D158" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E158" t="s">
-        <v>298</v>
+        <v>368</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="B159" t="s">
-        <v>297</v>
-      </c>
-      <c r="C159" t="s">
-        <v>299</v>
+        <v>161</v>
       </c>
       <c r="D159" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E159" t="s">
-        <v>300</v>
+        <v>369</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>297</v>
-      </c>
-      <c r="C160" t="s">
-        <v>301</v>
+        <v>370</v>
       </c>
       <c r="D160" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E160" t="s">
-        <v>300</v>
+        <v>371</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="B161" t="s">
-        <v>297</v>
-      </c>
-      <c r="C161" t="s">
-        <v>302</v>
+        <v>372</v>
       </c>
       <c r="D161" t="s">
-        <v>81</v>
+        <v>289</v>
       </c>
       <c r="E161" t="s">
-        <v>300</v>
+        <v>373</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="B162" t="s">
-        <v>303</v>
-      </c>
-      <c r="C162" t="s">
-        <v>304</v>
+        <v>374</v>
       </c>
       <c r="D162" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>375</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>306</v>
-      </c>
-      <c r="C163" t="s">
-        <v>2</v>
+        <v>376</v>
       </c>
       <c r="D163" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E163" t="s">
-        <v>307</v>
+        <v>377</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>308</v>
-      </c>
-      <c r="C164" t="s">
-        <v>309</v>
+        <v>378</v>
       </c>
       <c r="D164" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E164" t="s">
-        <v>310</v>
+        <v>379</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>311</v>
+        <v>67</v>
       </c>
       <c r="B165" t="s">
-        <v>312</v>
-      </c>
-      <c r="C165" t="s">
-        <v>2</v>
+        <v>380</v>
       </c>
       <c r="D165" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>381</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>311</v>
+        <v>67</v>
       </c>
       <c r="B166" t="s">
-        <v>312</v>
-      </c>
-      <c r="C166" t="s">
-        <v>314</v>
+        <v>382</v>
       </c>
       <c r="D166" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>383</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>74</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>316</v>
-      </c>
-      <c r="C167" t="s">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="D167" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B168" t="s">
-        <v>318</v>
-      </c>
-      <c r="C168" t="s">
-        <v>108</v>
+        <v>386</v>
       </c>
       <c r="D168" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>8</v>
+        <v>163</v>
       </c>
       <c r="B169" t="s">
-        <v>318</v>
-      </c>
-      <c r="C169" t="s">
-        <v>320</v>
+        <v>386</v>
       </c>
       <c r="D169" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="B170" t="s">
-        <v>318</v>
-      </c>
-      <c r="C170" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="D170" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>390</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B171" t="s">
-        <v>324</v>
-      </c>
-      <c r="C171" t="s">
-        <v>325</v>
+        <v>391</v>
       </c>
       <c r="D171" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E171" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B172" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="C172" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="D172" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E172" t="s">
-        <v>328</v>
+        <v>531</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="B173" t="s">
-        <v>324</v>
+        <v>391</v>
       </c>
       <c r="C173" t="s">
-        <v>329</v>
+        <v>532</v>
       </c>
       <c r="D173" t="s">
-        <v>3</v>
+        <v>463</v>
       </c>
       <c r="E173" t="s">
-        <v>330</v>
+        <v>533</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
-        <v>324</v>
-      </c>
-      <c r="C174" t="s">
-        <v>331</v>
+        <v>393</v>
       </c>
       <c r="D174" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E174" t="s">
-        <v>332</v>
+        <v>394</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B175" t="s">
-        <v>324</v>
-      </c>
-      <c r="C175" t="s">
-        <v>333</v>
+        <v>395</v>
       </c>
       <c r="D175" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E175" t="s">
-        <v>334</v>
+        <v>396</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B176" t="s">
-        <v>324</v>
-      </c>
-      <c r="C176" t="s">
-        <v>335</v>
+        <v>164</v>
       </c>
       <c r="D176" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E176" t="s">
-        <v>336</v>
+        <v>397</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B177" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="C177" t="s">
-        <v>337</v>
+        <v>165</v>
       </c>
       <c r="D177" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E177" t="s">
-        <v>338</v>
+        <v>166</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
-        <v>324</v>
+        <v>164</v>
       </c>
       <c r="C178" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D178" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>168</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>340</v>
+        <v>164</v>
       </c>
       <c r="C179" t="s">
+        <v>169</v>
+      </c>
+      <c r="D179" t="s">
+        <v>289</v>
+      </c>
+      <c r="E179" t="s">
         <v>170</v>
-      </c>
-      <c r="D179" t="s">
-        <v>3</v>
-      </c>
-      <c r="E179" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
-        <v>341</v>
+        <v>164</v>
       </c>
       <c r="C180" t="s">
-        <v>342</v>
+        <v>171</v>
       </c>
       <c r="D180" t="s">
-        <v>3</v>
+        <v>289</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>164</v>
+      </c>
+      <c r="C181" t="s">
+        <v>172</v>
+      </c>
+      <c r="D181" t="s">
+        <v>289</v>
+      </c>
+      <c r="E181" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>164</v>
+      </c>
+      <c r="C182" t="s">
+        <v>174</v>
+      </c>
+      <c r="D182" t="s">
+        <v>289</v>
+      </c>
+      <c r="E182" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>164</v>
+      </c>
+      <c r="C183" t="s">
+        <v>108</v>
+      </c>
+      <c r="D183" t="s">
+        <v>289</v>
+      </c>
+      <c r="E183" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>164</v>
+      </c>
+      <c r="C184" t="s">
+        <v>177</v>
+      </c>
+      <c r="D184" t="s">
+        <v>289</v>
+      </c>
+      <c r="E184" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>164</v>
+      </c>
+      <c r="C185" t="s">
+        <v>179</v>
+      </c>
+      <c r="D185" t="s">
+        <v>289</v>
+      </c>
+      <c r="E185" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>164</v>
+      </c>
+      <c r="C186" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" t="s">
+        <v>289</v>
+      </c>
+      <c r="E186" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>164</v>
+      </c>
+      <c r="C187" t="s">
+        <v>512</v>
+      </c>
+      <c r="D187" t="s">
+        <v>463</v>
+      </c>
+      <c r="E187" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>398</v>
+      </c>
+      <c r="D188" t="s">
+        <v>289</v>
+      </c>
+      <c r="E188" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>11</v>
+      </c>
+      <c r="B189" t="s">
+        <v>400</v>
+      </c>
+      <c r="D189" t="s">
+        <v>289</v>
+      </c>
+      <c r="E189" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>11</v>
+      </c>
+      <c r="B190" t="s">
+        <v>400</v>
+      </c>
+      <c r="C190" t="s">
+        <v>124</v>
+      </c>
+      <c r="D190" t="s">
+        <v>463</v>
+      </c>
+      <c r="E190" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>11</v>
+      </c>
+      <c r="B191" t="s">
+        <v>400</v>
+      </c>
+      <c r="C191" t="s">
+        <v>122</v>
+      </c>
+      <c r="D191" t="s">
+        <v>463</v>
+      </c>
+      <c r="E191" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>11</v>
+      </c>
+      <c r="B192" t="s">
+        <v>402</v>
+      </c>
+      <c r="D192" t="s">
+        <v>289</v>
+      </c>
+      <c r="E192" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>20</v>
+      </c>
+      <c r="B193" t="s">
+        <v>404</v>
+      </c>
+      <c r="D193" t="s">
+        <v>289</v>
+      </c>
+      <c r="E193" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>67</v>
+      </c>
+      <c r="B194" t="s">
+        <v>406</v>
+      </c>
+      <c r="D194" t="s">
+        <v>289</v>
+      </c>
+      <c r="E194" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>20</v>
+      </c>
+      <c r="B195" t="s">
+        <v>406</v>
+      </c>
+      <c r="D195" t="s">
+        <v>289</v>
+      </c>
+      <c r="E195" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>67</v>
+      </c>
+      <c r="B196" t="s">
+        <v>408</v>
+      </c>
+      <c r="D196" t="s">
+        <v>289</v>
+      </c>
+      <c r="E196" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>67</v>
+      </c>
+      <c r="B197" t="s">
+        <v>410</v>
+      </c>
+      <c r="D197" t="s">
+        <v>289</v>
+      </c>
+      <c r="E197" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>67</v>
+      </c>
+      <c r="B198" t="s">
+        <v>183</v>
+      </c>
+      <c r="D198" t="s">
+        <v>289</v>
+      </c>
+      <c r="E198" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>67</v>
+      </c>
+      <c r="B199" t="s">
+        <v>183</v>
+      </c>
+      <c r="C199" t="s">
+        <v>159</v>
+      </c>
+      <c r="D199" t="s">
+        <v>289</v>
+      </c>
+      <c r="E199" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>184</v>
+      </c>
+      <c r="D200" t="s">
+        <v>289</v>
+      </c>
+      <c r="E200" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>11</v>
+      </c>
+      <c r="B201" t="s">
+        <v>184</v>
+      </c>
+      <c r="C201" t="s">
+        <v>99</v>
+      </c>
+      <c r="D201" t="s">
+        <v>289</v>
+      </c>
+      <c r="E201" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>11</v>
+      </c>
+      <c r="B202" t="s">
+        <v>184</v>
+      </c>
+      <c r="C202" t="s">
+        <v>535</v>
+      </c>
+      <c r="D202" t="s">
+        <v>463</v>
+      </c>
+      <c r="E202" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>184</v>
+      </c>
+      <c r="C203" t="s">
+        <v>186</v>
+      </c>
+      <c r="D203" t="s">
+        <v>289</v>
+      </c>
+      <c r="E203" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>11</v>
+      </c>
+      <c r="B204" t="s">
+        <v>184</v>
+      </c>
+      <c r="C204" t="s">
+        <v>186</v>
+      </c>
+      <c r="D204" t="s">
+        <v>463</v>
+      </c>
+      <c r="E204" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>11</v>
+      </c>
+      <c r="B205" t="s">
+        <v>184</v>
+      </c>
+      <c r="C205" t="s">
+        <v>124</v>
+      </c>
+      <c r="D205" t="s">
+        <v>463</v>
+      </c>
+      <c r="E205" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>11</v>
+      </c>
+      <c r="B206" t="s">
+        <v>184</v>
+      </c>
+      <c r="C206" t="s">
+        <v>122</v>
+      </c>
+      <c r="D206" t="s">
+        <v>463</v>
+      </c>
+      <c r="E206" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>11</v>
+      </c>
+      <c r="B207" t="s">
+        <v>414</v>
+      </c>
+      <c r="D207" t="s">
+        <v>289</v>
+      </c>
+      <c r="E207" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>67</v>
+      </c>
+      <c r="B208" t="s">
+        <v>414</v>
+      </c>
+      <c r="D208" t="s">
+        <v>289</v>
+      </c>
+      <c r="E208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>414</v>
+      </c>
+      <c r="D209" t="s">
+        <v>289</v>
+      </c>
+      <c r="E209" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>67</v>
+      </c>
+      <c r="B210" t="s">
+        <v>416</v>
+      </c>
+      <c r="D210" t="s">
+        <v>289</v>
+      </c>
+      <c r="E210" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>11</v>
+      </c>
+      <c r="B211" t="s">
+        <v>418</v>
+      </c>
+      <c r="D211" t="s">
+        <v>289</v>
+      </c>
+      <c r="E211" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>11</v>
+      </c>
+      <c r="B212" t="s">
+        <v>418</v>
+      </c>
+      <c r="C212" t="s">
+        <v>124</v>
+      </c>
+      <c r="D212" t="s">
+        <v>463</v>
+      </c>
+      <c r="E212" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>11</v>
+      </c>
+      <c r="B213" t="s">
+        <v>418</v>
+      </c>
+      <c r="C213" t="s">
+        <v>122</v>
+      </c>
+      <c r="D213" t="s">
+        <v>463</v>
+      </c>
+      <c r="E213" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>188</v>
+      </c>
+      <c r="B214" t="s">
+        <v>189</v>
+      </c>
+      <c r="D214" t="s">
+        <v>289</v>
+      </c>
+      <c r="E214" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>188</v>
+      </c>
+      <c r="B215" t="s">
+        <v>189</v>
+      </c>
+      <c r="C215" t="s">
+        <v>99</v>
+      </c>
+      <c r="D215" t="s">
+        <v>289</v>
+      </c>
+      <c r="E215" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>67</v>
+      </c>
+      <c r="B216" t="s">
+        <v>422</v>
+      </c>
+      <c r="D216" t="s">
+        <v>289</v>
+      </c>
+      <c r="E216" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>67</v>
+      </c>
+      <c r="B217" t="s">
+        <v>422</v>
+      </c>
+      <c r="C217" t="s">
+        <v>538</v>
+      </c>
+      <c r="D217" t="s">
+        <v>463</v>
+      </c>
+      <c r="E217" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>188</v>
+      </c>
+      <c r="B218" t="s">
+        <v>424</v>
+      </c>
+      <c r="D218" t="s">
+        <v>289</v>
+      </c>
+      <c r="E218" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>425</v>
+      </c>
+      <c r="D219" t="s">
+        <v>289</v>
+      </c>
+      <c r="E219" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>425</v>
+      </c>
+      <c r="D220" t="s">
+        <v>289</v>
+      </c>
+      <c r="E220" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>190</v>
+      </c>
+      <c r="B221" t="s">
+        <v>191</v>
+      </c>
+      <c r="D221" t="s">
+        <v>289</v>
+      </c>
+      <c r="E221" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>190</v>
+      </c>
+      <c r="B222" t="s">
+        <v>191</v>
+      </c>
+      <c r="C222" t="s">
+        <v>539</v>
+      </c>
+      <c r="D222" t="s">
+        <v>289</v>
+      </c>
+      <c r="E222" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>190</v>
+      </c>
+      <c r="B223" t="s">
+        <v>191</v>
+      </c>
+      <c r="C223" t="s">
+        <v>124</v>
+      </c>
+      <c r="D223" t="s">
+        <v>463</v>
+      </c>
+      <c r="E223" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>190</v>
+      </c>
+      <c r="B224" t="s">
+        <v>191</v>
+      </c>
+      <c r="C224" t="s">
+        <v>122</v>
+      </c>
+      <c r="D224" t="s">
+        <v>289</v>
+      </c>
+      <c r="E224" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>190</v>
+      </c>
+      <c r="B225" t="s">
+        <v>191</v>
+      </c>
+      <c r="C225" t="s">
+        <v>122</v>
+      </c>
+      <c r="D225" t="s">
+        <v>463</v>
+      </c>
+      <c r="E225" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>190</v>
+      </c>
+      <c r="B226" t="s">
+        <v>191</v>
+      </c>
+      <c r="C226" t="s">
+        <v>192</v>
+      </c>
+      <c r="D226" t="s">
+        <v>289</v>
+      </c>
+      <c r="E226" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>190</v>
+      </c>
+      <c r="B227" t="s">
+        <v>193</v>
+      </c>
+      <c r="D227" t="s">
+        <v>289</v>
+      </c>
+      <c r="E227" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>190</v>
+      </c>
+      <c r="B228" t="s">
+        <v>193</v>
+      </c>
+      <c r="C228" t="s">
+        <v>194</v>
+      </c>
+      <c r="D228" t="s">
+        <v>289</v>
+      </c>
+      <c r="E228" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>190</v>
+      </c>
+      <c r="B229" t="s">
+        <v>193</v>
+      </c>
+      <c r="C229" t="s">
+        <v>196</v>
+      </c>
+      <c r="D229" t="s">
+        <v>289</v>
+      </c>
+      <c r="E229" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>190</v>
+      </c>
+      <c r="B230" t="s">
+        <v>193</v>
+      </c>
+      <c r="C230" t="s">
+        <v>198</v>
+      </c>
+      <c r="D230" t="s">
+        <v>289</v>
+      </c>
+      <c r="E230" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>190</v>
+      </c>
+      <c r="B231" t="s">
+        <v>193</v>
+      </c>
+      <c r="C231" t="s">
+        <v>124</v>
+      </c>
+      <c r="D231" t="s">
+        <v>463</v>
+      </c>
+      <c r="E231" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>190</v>
+      </c>
+      <c r="B232" t="s">
+        <v>193</v>
+      </c>
+      <c r="C232" t="s">
+        <v>122</v>
+      </c>
+      <c r="D232" t="s">
+        <v>463</v>
+      </c>
+      <c r="E232" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>190</v>
+      </c>
+      <c r="B233" t="s">
+        <v>429</v>
+      </c>
+      <c r="D233" t="s">
+        <v>289</v>
+      </c>
+      <c r="E233" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>190</v>
+      </c>
+      <c r="B234" t="s">
+        <v>431</v>
+      </c>
+      <c r="D234" t="s">
+        <v>289</v>
+      </c>
+      <c r="E234" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>190</v>
+      </c>
+      <c r="B235" t="s">
+        <v>433</v>
+      </c>
+      <c r="D235" t="s">
+        <v>289</v>
+      </c>
+      <c r="E235" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>190</v>
+      </c>
+      <c r="B236" t="s">
+        <v>200</v>
+      </c>
+      <c r="D236" t="s">
+        <v>289</v>
+      </c>
+      <c r="E236" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>190</v>
+      </c>
+      <c r="B237" t="s">
+        <v>200</v>
+      </c>
+      <c r="C237" t="s">
+        <v>201</v>
+      </c>
+      <c r="D237" t="s">
+        <v>289</v>
+      </c>
+      <c r="E237" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>190</v>
+      </c>
+      <c r="B238" t="s">
+        <v>200</v>
+      </c>
+      <c r="C238" t="s">
+        <v>203</v>
+      </c>
+      <c r="D238" t="s">
+        <v>289</v>
+      </c>
+      <c r="E238" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>190</v>
+      </c>
+      <c r="B239" t="s">
+        <v>200</v>
+      </c>
+      <c r="C239" t="s">
+        <v>205</v>
+      </c>
+      <c r="D239" t="s">
+        <v>289</v>
+      </c>
+      <c r="E239" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>190</v>
+      </c>
+      <c r="B240" t="s">
+        <v>200</v>
+      </c>
+      <c r="C240" t="s">
+        <v>207</v>
+      </c>
+      <c r="D240" t="s">
+        <v>289</v>
+      </c>
+      <c r="E240" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>190</v>
+      </c>
+      <c r="B241" t="s">
+        <v>200</v>
+      </c>
+      <c r="C241" t="s">
+        <v>209</v>
+      </c>
+      <c r="D241" t="s">
+        <v>289</v>
+      </c>
+      <c r="E241" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>190</v>
+      </c>
+      <c r="B242" t="s">
+        <v>200</v>
+      </c>
+      <c r="C242" t="s">
+        <v>211</v>
+      </c>
+      <c r="D242" t="s">
+        <v>289</v>
+      </c>
+      <c r="E242" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>190</v>
+      </c>
+      <c r="B243" t="s">
+        <v>200</v>
+      </c>
+      <c r="C243" t="s">
+        <v>213</v>
+      </c>
+      <c r="D243" t="s">
+        <v>289</v>
+      </c>
+      <c r="E243" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>190</v>
+      </c>
+      <c r="B244" t="s">
+        <v>200</v>
+      </c>
+      <c r="C244" t="s">
+        <v>215</v>
+      </c>
+      <c r="D244" t="s">
+        <v>289</v>
+      </c>
+      <c r="E244" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>190</v>
+      </c>
+      <c r="B245" t="s">
+        <v>200</v>
+      </c>
+      <c r="C245" t="s">
+        <v>124</v>
+      </c>
+      <c r="D245" t="s">
+        <v>463</v>
+      </c>
+      <c r="E245" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>190</v>
+      </c>
+      <c r="B246" t="s">
+        <v>436</v>
+      </c>
+      <c r="D246" t="s">
+        <v>289</v>
+      </c>
+      <c r="E246" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>190</v>
+      </c>
+      <c r="B247" t="s">
+        <v>438</v>
+      </c>
+      <c r="D247" t="s">
+        <v>289</v>
+      </c>
+      <c r="E247" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>190</v>
+      </c>
+      <c r="B248" t="s">
+        <v>217</v>
+      </c>
+      <c r="D248" t="s">
+        <v>289</v>
+      </c>
+      <c r="E248" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>190</v>
+      </c>
+      <c r="B249" t="s">
+        <v>217</v>
+      </c>
+      <c r="C249" t="s">
+        <v>99</v>
+      </c>
+      <c r="D249" t="s">
+        <v>289</v>
+      </c>
+      <c r="E249" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>190</v>
+      </c>
+      <c r="B250" t="s">
+        <v>217</v>
+      </c>
+      <c r="C250" t="s">
+        <v>219</v>
+      </c>
+      <c r="D250" t="s">
+        <v>289</v>
+      </c>
+      <c r="E250" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>190</v>
+      </c>
+      <c r="B251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C251" t="s">
+        <v>186</v>
+      </c>
+      <c r="D251" t="s">
+        <v>463</v>
+      </c>
+      <c r="E251" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>2</v>
+      </c>
+      <c r="B252" t="s">
+        <v>221</v>
+      </c>
+      <c r="D252" t="s">
+        <v>289</v>
+      </c>
+      <c r="E252" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>2</v>
+      </c>
+      <c r="B253" t="s">
+        <v>221</v>
+      </c>
+      <c r="C253" t="s">
+        <v>99</v>
+      </c>
+      <c r="D253" t="s">
+        <v>289</v>
+      </c>
+      <c r="E253" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>67</v>
+      </c>
+      <c r="B254" t="s">
+        <v>542</v>
+      </c>
+      <c r="D254" t="s">
+        <v>289</v>
+      </c>
+      <c r="E254" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>67</v>
+      </c>
+      <c r="B255" t="s">
+        <v>542</v>
+      </c>
+      <c r="C255" t="s">
+        <v>512</v>
+      </c>
+      <c r="D255" t="s">
+        <v>463</v>
+      </c>
+      <c r="E255" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>2</v>
+      </c>
+      <c r="B256" t="s">
+        <v>443</v>
+      </c>
+      <c r="D256" t="s">
+        <v>289</v>
+      </c>
+      <c r="E256" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>11</v>
+      </c>
+      <c r="B257" t="s">
+        <v>445</v>
+      </c>
+      <c r="D257" t="s">
+        <v>289</v>
+      </c>
+      <c r="E257" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>11</v>
+      </c>
+      <c r="B258" t="s">
+        <v>447</v>
+      </c>
+      <c r="D258" t="s">
+        <v>289</v>
+      </c>
+      <c r="E258" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>11</v>
+      </c>
+      <c r="B259" t="s">
+        <v>447</v>
+      </c>
+      <c r="C259" t="s">
+        <v>124</v>
+      </c>
+      <c r="D259" t="s">
+        <v>463</v>
+      </c>
+      <c r="E259" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>11</v>
+      </c>
+      <c r="B260" t="s">
+        <v>447</v>
+      </c>
+      <c r="C260" t="s">
+        <v>122</v>
+      </c>
+      <c r="D260" t="s">
+        <v>463</v>
+      </c>
+      <c r="E260" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>67</v>
+      </c>
+      <c r="B261" t="s">
+        <v>449</v>
+      </c>
+      <c r="D261" t="s">
+        <v>289</v>
+      </c>
+      <c r="E261" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>11</v>
+      </c>
+      <c r="B262" t="s">
+        <v>222</v>
+      </c>
+      <c r="D262" t="s">
+        <v>289</v>
+      </c>
+      <c r="E262" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>222</v>
+      </c>
+      <c r="C263" t="s">
+        <v>108</v>
+      </c>
+      <c r="D263" t="s">
+        <v>289</v>
+      </c>
+      <c r="E263" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>11</v>
+      </c>
+      <c r="B264" t="s">
+        <v>222</v>
+      </c>
+      <c r="C264" t="s">
+        <v>224</v>
+      </c>
+      <c r="D264" t="s">
+        <v>289</v>
+      </c>
+      <c r="E264" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>11</v>
+      </c>
+      <c r="B265" t="s">
+        <v>222</v>
+      </c>
+      <c r="C265" t="s">
+        <v>226</v>
+      </c>
+      <c r="D265" t="s">
+        <v>289</v>
+      </c>
+      <c r="E265" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>11</v>
+      </c>
+      <c r="B266" t="s">
+        <v>222</v>
+      </c>
+      <c r="C266" t="s">
+        <v>228</v>
+      </c>
+      <c r="D266" t="s">
+        <v>289</v>
+      </c>
+      <c r="E266" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>11</v>
+      </c>
+      <c r="B267" t="s">
+        <v>222</v>
+      </c>
+      <c r="C267" t="s">
+        <v>230</v>
+      </c>
+      <c r="D267" t="s">
+        <v>289</v>
+      </c>
+      <c r="E267" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>11</v>
+      </c>
+      <c r="B268" t="s">
+        <v>222</v>
+      </c>
+      <c r="C268" t="s">
+        <v>232</v>
+      </c>
+      <c r="D268" t="s">
+        <v>289</v>
+      </c>
+      <c r="E268" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>11</v>
+      </c>
+      <c r="B269" t="s">
+        <v>222</v>
+      </c>
+      <c r="C269" t="s">
+        <v>234</v>
+      </c>
+      <c r="D269" t="s">
+        <v>289</v>
+      </c>
+      <c r="E269" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>11</v>
+      </c>
+      <c r="B270" t="s">
+        <v>222</v>
+      </c>
+      <c r="C270" t="s">
+        <v>124</v>
+      </c>
+      <c r="D270" t="s">
+        <v>463</v>
+      </c>
+      <c r="E270" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>11</v>
+      </c>
+      <c r="B271" t="s">
+        <v>222</v>
+      </c>
+      <c r="C271" t="s">
+        <v>122</v>
+      </c>
+      <c r="D271" t="s">
+        <v>463</v>
+      </c>
+      <c r="E271" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>0</v>
+      </c>
+      <c r="B272" t="s">
+        <v>452</v>
+      </c>
+      <c r="D272" t="s">
+        <v>289</v>
+      </c>
+      <c r="E272" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>67</v>
+      </c>
+      <c r="B273" t="s">
+        <v>452</v>
+      </c>
+      <c r="D273" t="s">
+        <v>289</v>
+      </c>
+      <c r="E273" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>190</v>
+      </c>
+      <c r="B274" t="s">
+        <v>452</v>
+      </c>
+      <c r="D274" t="s">
+        <v>289</v>
+      </c>
+      <c r="E274" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>2</v>
+      </c>
+      <c r="B275" t="s">
+        <v>452</v>
+      </c>
+      <c r="D275" t="s">
+        <v>289</v>
+      </c>
+      <c r="E275" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>20</v>
+      </c>
+      <c r="B276" t="s">
+        <v>452</v>
+      </c>
+      <c r="D276" t="s">
+        <v>289</v>
+      </c>
+      <c r="E276" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>0</v>
+      </c>
+      <c r="B277" t="s">
+        <v>236</v>
+      </c>
+      <c r="D277" t="s">
+        <v>289</v>
+      </c>
+      <c r="E277" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>0</v>
+      </c>
+      <c r="B278" t="s">
+        <v>236</v>
+      </c>
+      <c r="C278" t="s">
+        <v>159</v>
+      </c>
+      <c r="D278" t="s">
+        <v>289</v>
+      </c>
+      <c r="E278" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>67</v>
+      </c>
+      <c r="B279" t="s">
+        <v>236</v>
+      </c>
+      <c r="D279" t="s">
+        <v>289</v>
+      </c>
+      <c r="E279" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>67</v>
+      </c>
+      <c r="B280" t="s">
+        <v>236</v>
+      </c>
+      <c r="C280" t="s">
+        <v>159</v>
+      </c>
+      <c r="D280" t="s">
+        <v>289</v>
+      </c>
+      <c r="E280" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>190</v>
+      </c>
+      <c r="B281" t="s">
+        <v>236</v>
+      </c>
+      <c r="D281" t="s">
+        <v>289</v>
+      </c>
+      <c r="E281" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>190</v>
+      </c>
+      <c r="B282" t="s">
+        <v>236</v>
+      </c>
+      <c r="C282" t="s">
+        <v>159</v>
+      </c>
+      <c r="D282" t="s">
+        <v>289</v>
+      </c>
+      <c r="E282" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>2</v>
+      </c>
+      <c r="B283" t="s">
+        <v>236</v>
+      </c>
+      <c r="D283" t="s">
+        <v>289</v>
+      </c>
+      <c r="E283" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>2</v>
+      </c>
+      <c r="B284" t="s">
+        <v>236</v>
+      </c>
+      <c r="C284" t="s">
+        <v>159</v>
+      </c>
+      <c r="D284" t="s">
+        <v>289</v>
+      </c>
+      <c r="E284" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>20</v>
+      </c>
+      <c r="B285" t="s">
+        <v>236</v>
+      </c>
+      <c r="D285" t="s">
+        <v>289</v>
+      </c>
+      <c r="E285" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>20</v>
+      </c>
+      <c r="B286" t="s">
+        <v>236</v>
+      </c>
+      <c r="C286" t="s">
+        <v>159</v>
+      </c>
+      <c r="D286" t="s">
+        <v>289</v>
+      </c>
+      <c r="E286" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>11</v>
+      </c>
+      <c r="B287" t="s">
+        <v>237</v>
+      </c>
+      <c r="D287" t="s">
+        <v>289</v>
+      </c>
+      <c r="E287" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>11</v>
+      </c>
+      <c r="B288" t="s">
+        <v>237</v>
+      </c>
+      <c r="C288" t="s">
+        <v>238</v>
+      </c>
+      <c r="D288" t="s">
+        <v>289</v>
+      </c>
+      <c r="E288" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>11</v>
+      </c>
+      <c r="B289" t="s">
+        <v>237</v>
+      </c>
+      <c r="C289" t="s">
+        <v>239</v>
+      </c>
+      <c r="D289" t="s">
+        <v>289</v>
+      </c>
+      <c r="E289" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>11</v>
+      </c>
+      <c r="B290" t="s">
+        <v>237</v>
+      </c>
+      <c r="C290" t="s">
+        <v>240</v>
+      </c>
+      <c r="D290" t="s">
+        <v>289</v>
+      </c>
+      <c r="E290" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>11</v>
+      </c>
+      <c r="B291" t="s">
+        <v>237</v>
+      </c>
+      <c r="C291" t="s">
+        <v>241</v>
+      </c>
+      <c r="D291" t="s">
+        <v>289</v>
+      </c>
+      <c r="E291" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>11</v>
+      </c>
+      <c r="B292" t="s">
+        <v>237</v>
+      </c>
+      <c r="C292" t="s">
+        <v>242</v>
+      </c>
+      <c r="D292" t="s">
+        <v>289</v>
+      </c>
+      <c r="E292" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>237</v>
+      </c>
+      <c r="C293" t="s">
+        <v>124</v>
+      </c>
+      <c r="D293" t="s">
+        <v>463</v>
+      </c>
+      <c r="E293" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>11</v>
+      </c>
+      <c r="B294" t="s">
+        <v>237</v>
+      </c>
+      <c r="C294" t="s">
+        <v>122</v>
+      </c>
+      <c r="D294" t="s">
+        <v>463</v>
+      </c>
+      <c r="E294" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>67</v>
+      </c>
+      <c r="B295" t="s">
+        <v>283</v>
+      </c>
+      <c r="D295" t="s">
+        <v>289</v>
+      </c>
+      <c r="E295" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>67</v>
+      </c>
+      <c r="B296" t="s">
+        <v>283</v>
+      </c>
+      <c r="C296" t="s">
+        <v>462</v>
+      </c>
+      <c r="D296" t="s">
+        <v>289</v>
+      </c>
+      <c r="E296" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>67</v>
+      </c>
+      <c r="B297" t="s">
+        <v>283</v>
+      </c>
+      <c r="C297" t="s">
+        <v>254</v>
+      </c>
+      <c r="D297" t="s">
+        <v>289</v>
+      </c>
+      <c r="E297" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>67</v>
+      </c>
+      <c r="B298" t="s">
+        <v>283</v>
+      </c>
+      <c r="C298" t="s">
+        <v>264</v>
+      </c>
+      <c r="D298" t="s">
+        <v>289</v>
+      </c>
+      <c r="E298" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>67</v>
+      </c>
+      <c r="B299" t="s">
+        <v>283</v>
+      </c>
+      <c r="C299" t="s">
+        <v>265</v>
+      </c>
+      <c r="D299" t="s">
+        <v>289</v>
+      </c>
+      <c r="E299" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>67</v>
+      </c>
+      <c r="B300" t="s">
+        <v>283</v>
+      </c>
+      <c r="C300" t="s">
+        <v>468</v>
+      </c>
+      <c r="D300" t="s">
+        <v>289</v>
+      </c>
+      <c r="E300" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>67</v>
+      </c>
+      <c r="B301" t="s">
+        <v>283</v>
+      </c>
+      <c r="C301" t="s">
+        <v>470</v>
+      </c>
+      <c r="D301" t="s">
+        <v>289</v>
+      </c>
+      <c r="E301" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>67</v>
+      </c>
+      <c r="B302" t="s">
+        <v>283</v>
+      </c>
+      <c r="C302" t="s">
+        <v>267</v>
+      </c>
+      <c r="D302" t="s">
+        <v>289</v>
+      </c>
+      <c r="E302" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>67</v>
+      </c>
+      <c r="B303" t="s">
+        <v>473</v>
+      </c>
+      <c r="D303" t="s">
+        <v>289</v>
+      </c>
+      <c r="E303" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>0</v>
+      </c>
+      <c r="B304" t="s">
+        <v>475</v>
+      </c>
+      <c r="D304" t="s">
+        <v>289</v>
+      </c>
+      <c r="E304" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>67</v>
+      </c>
+      <c r="B305" t="s">
+        <v>475</v>
+      </c>
+      <c r="D305" t="s">
+        <v>289</v>
+      </c>
+      <c r="E305" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>190</v>
+      </c>
+      <c r="B306" t="s">
+        <v>475</v>
+      </c>
+      <c r="D306" t="s">
+        <v>289</v>
+      </c>
+      <c r="E306" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>2</v>
+      </c>
+      <c r="B307" t="s">
+        <v>475</v>
+      </c>
+      <c r="D307" t="s">
+        <v>289</v>
+      </c>
+      <c r="E307" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>20</v>
+      </c>
+      <c r="B308" t="s">
+        <v>475</v>
+      </c>
+      <c r="D308" t="s">
+        <v>289</v>
+      </c>
+      <c r="E308" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>0</v>
+      </c>
+      <c r="B309" t="s">
+        <v>477</v>
+      </c>
+      <c r="D309" t="s">
+        <v>289</v>
+      </c>
+      <c r="E309" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>67</v>
+      </c>
+      <c r="B310" t="s">
+        <v>477</v>
+      </c>
+      <c r="D310" t="s">
+        <v>289</v>
+      </c>
+      <c r="E310" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>190</v>
+      </c>
+      <c r="B311" t="s">
+        <v>477</v>
+      </c>
+      <c r="D311" t="s">
+        <v>289</v>
+      </c>
+      <c r="E311" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>2</v>
+      </c>
+      <c r="B312" t="s">
+        <v>477</v>
+      </c>
+      <c r="D312" t="s">
+        <v>289</v>
+      </c>
+      <c r="E312" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>20</v>
+      </c>
+      <c r="B313" t="s">
+        <v>477</v>
+      </c>
+      <c r="D313" t="s">
+        <v>289</v>
+      </c>
+      <c r="E313" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>67</v>
+      </c>
+      <c r="B314" t="s">
+        <v>479</v>
+      </c>
+      <c r="D314" t="s">
+        <v>289</v>
+      </c>
+      <c r="E314" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>67</v>
+      </c>
+      <c r="B315" t="s">
+        <v>481</v>
+      </c>
+      <c r="D315" t="s">
+        <v>289</v>
+      </c>
+      <c r="E315" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>67</v>
+      </c>
+      <c r="B316" t="s">
+        <v>483</v>
+      </c>
+      <c r="D316" t="s">
+        <v>289</v>
+      </c>
+      <c r="E316" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>67</v>
+      </c>
+      <c r="B317" t="s">
+        <v>243</v>
+      </c>
+      <c r="D317" t="s">
+        <v>289</v>
+      </c>
+      <c r="E317" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>67</v>
+      </c>
+      <c r="B318" t="s">
+        <v>243</v>
+      </c>
+      <c r="C318" t="s">
+        <v>99</v>
+      </c>
+      <c r="D318" t="s">
+        <v>289</v>
+      </c>
+      <c r="E318" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>67</v>
+      </c>
+      <c r="B319" t="s">
+        <v>486</v>
+      </c>
+      <c r="D319" t="s">
+        <v>289</v>
+      </c>
+      <c r="E319" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>0</v>
+      </c>
+      <c r="B320" t="s">
+        <v>488</v>
+      </c>
+      <c r="D320" t="s">
+        <v>289</v>
+      </c>
+      <c r="E320" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>0</v>
+      </c>
+      <c r="B321" t="s">
+        <v>488</v>
+      </c>
+      <c r="C321" t="s">
+        <v>186</v>
+      </c>
+      <c r="D321" t="s">
+        <v>463</v>
+      </c>
+      <c r="E321" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>0</v>
+      </c>
+      <c r="B322" t="s">
+        <v>488</v>
+      </c>
+      <c r="C322" t="s">
+        <v>514</v>
+      </c>
+      <c r="D322" t="s">
+        <v>463</v>
+      </c>
+      <c r="E322" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>0</v>
+      </c>
+      <c r="B323" t="s">
+        <v>488</v>
+      </c>
+      <c r="C323" t="s">
+        <v>532</v>
+      </c>
+      <c r="D323" t="s">
+        <v>463</v>
+      </c>
+      <c r="E323" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>0</v>
+      </c>
+      <c r="B324" t="s">
+        <v>490</v>
+      </c>
+      <c r="D324" t="s">
+        <v>289</v>
+      </c>
+      <c r="E324" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>67</v>
+      </c>
+      <c r="B325" t="s">
+        <v>245</v>
+      </c>
+      <c r="D325" t="s">
+        <v>289</v>
+      </c>
+      <c r="E325" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>67</v>
+      </c>
+      <c r="B326" t="s">
+        <v>245</v>
+      </c>
+      <c r="C326" t="s">
+        <v>246</v>
+      </c>
+      <c r="D326" t="s">
+        <v>338</v>
+      </c>
+      <c r="E326" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>67</v>
+      </c>
+      <c r="B327" t="s">
+        <v>245</v>
+      </c>
+      <c r="C327" t="s">
+        <v>248</v>
+      </c>
+      <c r="D327" t="s">
+        <v>338</v>
+      </c>
+      <c r="E327" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>67</v>
+      </c>
+      <c r="B328" t="s">
+        <v>245</v>
+      </c>
+      <c r="C328" t="s">
+        <v>249</v>
+      </c>
+      <c r="D328" t="s">
+        <v>338</v>
+      </c>
+      <c r="E328" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>67</v>
+      </c>
+      <c r="B329" t="s">
+        <v>245</v>
+      </c>
+      <c r="C329" t="s">
+        <v>250</v>
+      </c>
+      <c r="D329" t="s">
+        <v>463</v>
+      </c>
+      <c r="E329" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>67</v>
+      </c>
+      <c r="B330" t="s">
+        <v>245</v>
+      </c>
+      <c r="C330" t="s">
+        <v>260</v>
+      </c>
+      <c r="D330" t="s">
+        <v>338</v>
+      </c>
+      <c r="E330" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>67</v>
+      </c>
+      <c r="B331" t="s">
+        <v>245</v>
+      </c>
+      <c r="C331" t="s">
+        <v>261</v>
+      </c>
+      <c r="D331" t="s">
+        <v>338</v>
+      </c>
+      <c r="E331" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>67</v>
+      </c>
+      <c r="B332" t="s">
+        <v>245</v>
+      </c>
+      <c r="C332" t="s">
+        <v>262</v>
+      </c>
+      <c r="D332" t="s">
+        <v>338</v>
+      </c>
+      <c r="E332" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>67</v>
+      </c>
+      <c r="B333" t="s">
+        <v>245</v>
+      </c>
+      <c r="C333" t="s">
+        <v>255</v>
+      </c>
+      <c r="D333" t="s">
+        <v>338</v>
+      </c>
+      <c r="E333" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>67</v>
+      </c>
+      <c r="B334" t="s">
+        <v>245</v>
+      </c>
+      <c r="C334" t="s">
+        <v>268</v>
+      </c>
+      <c r="D334" t="s">
+        <v>289</v>
+      </c>
+      <c r="E334" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>67</v>
+      </c>
+      <c r="B335" t="s">
+        <v>245</v>
+      </c>
+      <c r="C335" t="s">
+        <v>268</v>
+      </c>
+      <c r="D335" t="s">
+        <v>338</v>
+      </c>
+      <c r="E335" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>67</v>
+      </c>
+      <c r="B336" t="s">
+        <v>245</v>
+      </c>
+      <c r="C336" t="s">
+        <v>256</v>
+      </c>
+      <c r="D336" t="s">
+        <v>289</v>
+      </c>
+      <c r="E336" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>67</v>
+      </c>
+      <c r="B337" t="s">
+        <v>245</v>
+      </c>
+      <c r="C337" t="s">
+        <v>256</v>
+      </c>
+      <c r="D337" t="s">
+        <v>338</v>
+      </c>
+      <c r="E337" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>67</v>
+      </c>
+      <c r="B338" t="s">
+        <v>245</v>
+      </c>
+      <c r="C338" t="s">
+        <v>258</v>
+      </c>
+      <c r="D338" t="s">
+        <v>289</v>
+      </c>
+      <c r="E338" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>67</v>
+      </c>
+      <c r="B339" t="s">
+        <v>245</v>
+      </c>
+      <c r="C339" t="s">
+        <v>258</v>
+      </c>
+      <c r="D339" t="s">
+        <v>338</v>
+      </c>
+      <c r="E339" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>67</v>
+      </c>
+      <c r="B340" t="s">
+        <v>245</v>
+      </c>
+      <c r="C340" t="s">
+        <v>265</v>
+      </c>
+      <c r="D340" t="s">
+        <v>289</v>
+      </c>
+      <c r="E340" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>67</v>
+      </c>
+      <c r="B341" t="s">
+        <v>245</v>
+      </c>
+      <c r="C341" t="s">
+        <v>265</v>
+      </c>
+      <c r="D341" t="s">
+        <v>338</v>
+      </c>
+      <c r="E341" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>67</v>
+      </c>
+      <c r="B342" t="s">
+        <v>245</v>
+      </c>
+      <c r="C342" t="s">
+        <v>468</v>
+      </c>
+      <c r="D342" t="s">
+        <v>289</v>
+      </c>
+      <c r="E342" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>67</v>
+      </c>
+      <c r="B343" t="s">
+        <v>245</v>
+      </c>
+      <c r="C343" t="s">
+        <v>470</v>
+      </c>
+      <c r="D343" t="s">
+        <v>289</v>
+      </c>
+      <c r="E343" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>67</v>
+      </c>
+      <c r="B344" t="s">
+        <v>245</v>
+      </c>
+      <c r="C344" t="s">
+        <v>267</v>
+      </c>
+      <c r="D344" t="s">
+        <v>289</v>
+      </c>
+      <c r="E344" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>67</v>
+      </c>
+      <c r="B345" t="s">
+        <v>245</v>
+      </c>
+      <c r="C345" t="s">
+        <v>267</v>
+      </c>
+      <c r="D345" t="s">
+        <v>338</v>
+      </c>
+      <c r="E345" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>67</v>
+      </c>
+      <c r="B346" t="s">
+        <v>245</v>
+      </c>
+      <c r="C346" t="s">
+        <v>252</v>
+      </c>
+      <c r="D346" t="s">
+        <v>289</v>
+      </c>
+      <c r="E346" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>67</v>
+      </c>
+      <c r="B347" t="s">
+        <v>245</v>
+      </c>
+      <c r="C347" t="s">
+        <v>462</v>
+      </c>
+      <c r="D347" t="s">
+        <v>289</v>
+      </c>
+      <c r="E347" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>67</v>
+      </c>
+      <c r="B348" t="s">
+        <v>245</v>
+      </c>
+      <c r="C348" t="s">
+        <v>254</v>
+      </c>
+      <c r="D348" t="s">
+        <v>289</v>
+      </c>
+      <c r="E348" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>67</v>
+      </c>
+      <c r="B349" t="s">
+        <v>245</v>
+      </c>
+      <c r="C349" t="s">
+        <v>254</v>
+      </c>
+      <c r="D349" t="s">
+        <v>338</v>
+      </c>
+      <c r="E349" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>67</v>
+      </c>
+      <c r="B350" t="s">
+        <v>245</v>
+      </c>
+      <c r="C350" t="s">
+        <v>264</v>
+      </c>
+      <c r="D350" t="s">
+        <v>289</v>
+      </c>
+      <c r="E350" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>67</v>
+      </c>
+      <c r="B351" t="s">
+        <v>245</v>
+      </c>
+      <c r="C351" t="s">
+        <v>264</v>
+      </c>
+      <c r="D351" t="s">
+        <v>338</v>
+      </c>
+      <c r="E351" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>67</v>
+      </c>
+      <c r="B352" t="s">
+        <v>271</v>
+      </c>
+      <c r="D352" t="s">
+        <v>289</v>
+      </c>
+      <c r="E352" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>67</v>
+      </c>
+      <c r="B353" t="s">
+        <v>271</v>
+      </c>
+      <c r="C353" t="s">
+        <v>273</v>
+      </c>
+      <c r="D353" t="s">
+        <v>338</v>
+      </c>
+      <c r="E353" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>67</v>
+      </c>
+      <c r="B354" t="s">
+        <v>271</v>
+      </c>
+      <c r="C354" t="s">
+        <v>275</v>
+      </c>
+      <c r="D354" t="s">
+        <v>338</v>
+      </c>
+      <c r="E354" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>67</v>
+      </c>
+      <c r="B355" t="s">
+        <v>271</v>
+      </c>
+      <c r="C355" t="s">
+        <v>276</v>
+      </c>
+      <c r="D355" t="s">
+        <v>338</v>
+      </c>
+      <c r="E355" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>67</v>
+      </c>
+      <c r="B356" t="s">
+        <v>277</v>
+      </c>
+      <c r="D356" t="s">
+        <v>289</v>
+      </c>
+      <c r="E356" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>67</v>
+      </c>
+      <c r="B357" t="s">
+        <v>277</v>
+      </c>
+      <c r="C357" t="s">
+        <v>278</v>
+      </c>
+      <c r="D357" t="s">
+        <v>289</v>
+      </c>
+      <c r="E357" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>67</v>
+      </c>
+      <c r="B358" t="s">
+        <v>493</v>
+      </c>
+      <c r="D358" t="s">
+        <v>289</v>
+      </c>
+      <c r="E358" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>11</v>
+      </c>
+      <c r="B359" t="s">
+        <v>495</v>
+      </c>
+      <c r="D359" t="s">
+        <v>289</v>
+      </c>
+      <c r="E359" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" t="s">
+        <v>497</v>
+      </c>
+      <c r="D360" t="s">
+        <v>289</v>
+      </c>
+      <c r="E360" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>20</v>
+      </c>
+      <c r="B361" t="s">
+        <v>497</v>
+      </c>
+      <c r="D361" t="s">
+        <v>289</v>
+      </c>
+      <c r="E361" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>20</v>
+      </c>
+      <c r="B362" t="s">
+        <v>499</v>
+      </c>
+      <c r="D362" t="s">
+        <v>289</v>
+      </c>
+      <c r="E362" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>501</v>
+      </c>
+      <c r="D363" t="s">
+        <v>289</v>
+      </c>
+      <c r="E363" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s">
+        <v>280</v>
+      </c>
+      <c r="D364" t="s">
+        <v>289</v>
+      </c>
+      <c r="E364" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" t="s">
+        <v>504</v>
+      </c>
+      <c r="D365" t="s">
+        <v>289</v>
+      </c>
+      <c r="E365" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>281</v>
+      </c>
+      <c r="B366" t="s">
+        <v>546</v>
+      </c>
+      <c r="D366" t="s">
+        <v>289</v>
+      </c>
+      <c r="E366" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>281</v>
+      </c>
+      <c r="B367" t="s">
+        <v>506</v>
+      </c>
+      <c r="D367" t="s">
+        <v>289</v>
+      </c>
+      <c r="E367" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>281</v>
+      </c>
+      <c r="B368" t="s">
+        <v>506</v>
+      </c>
+      <c r="C368" t="s">
+        <v>548</v>
+      </c>
+      <c r="D368" t="s">
+        <v>289</v>
+      </c>
+      <c r="E368" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>281</v>
+      </c>
+      <c r="B369" t="s">
+        <v>506</v>
+      </c>
+      <c r="C369" t="s">
+        <v>532</v>
+      </c>
+      <c r="D369" t="s">
+        <v>463</v>
+      </c>
+      <c r="E369" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
